--- a/data/helpdoc/DND/13_塔莎的万事坩埚TCE.xlsx
+++ b/data/helpdoc/DND/13_塔莎的万事坩埚TCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TCE法术" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>5e 轰雷剑</t>
+    <t>轰雷剑</t>
   </si>
   <si>
     <t/>
@@ -527,7 +527,7 @@
 轰雷剑(SCAG)</t>
   </si>
   <si>
-    <t>5e 翠炎剑</t>
+    <t>翠炎剑</t>
   </si>
   <si>
     <t>翠炎剑 Green-Flame Blade(TCE)
@@ -543,7 +543,7 @@
 翠炎剑(SCAG)</t>
   </si>
   <si>
-    <t>5e 闪电牵引</t>
+    <t>闪电牵引</t>
   </si>
   <si>
     <t>闪电牵引 Lightning Lure(TCE)
@@ -559,7 +559,7 @@
 闪电牵引(SCAG)</t>
   </si>
   <si>
-    <t>5e 剑刃爆发</t>
+    <t>剑刃爆发</t>
   </si>
   <si>
     <t>剑刃爆发 Sword Burst(TCE)
@@ -575,7 +575,7 @@
 剑刃爆发(SCAG)</t>
   </si>
   <si>
-    <t>5e 心灵之楔</t>
+    <t>心灵之楔</t>
   </si>
   <si>
     <t>心灵之楔 Mind Sliver(TCE)
@@ -589,7 +589,7 @@
 第5级时，本法术的伤害增加1d6（变为2d6）。11级时再加1d6（变为3d6），17级时再加1d6（变为4d6）。</t>
   </si>
   <si>
-    <t>5e 塔莎酸蚀酿</t>
+    <t>塔莎酸蚀酿</t>
   </si>
   <si>
     <t>塔莎腐蚀酿</t>
@@ -606,7 +606,7 @@
 升环施法效应：使用二环或更高法术位施放本法术时，你使用的法术位每比一环高1环，法术的伤害就增加2d4。</t>
   </si>
   <si>
-    <t>5e 野兽召唤术</t>
+    <t>野兽召唤术</t>
   </si>
   <si>
     <t>野兽召唤术 Summon Beast(TCE)
@@ -638,7 +638,7 @@
 撕咬：近战武器攻击：命中采取你的法术攻击加值，触及5尺，单一目标；命中：1d8+4+法术环阶的穿刺伤害。</t>
   </si>
   <si>
-    <t>5e 塔莎心灵鞭</t>
+    <t>塔莎心灵鞭</t>
   </si>
   <si>
     <t>塔莎心灵鞭 Tasha's Mind Whip(TCE)
@@ -652,7 +652,7 @@
 升环施法效应：使用三环或更高的法术位施放本法术时，你使用的法术位每比二环高1环就可以额外指定一个生物。被你选为目标的生物互相之间的距离不能超过30尺。</t>
   </si>
   <si>
-    <t>5e 智能堡垒</t>
+    <t>智能堡垒</t>
   </si>
   <si>
     <t>智力堡垒/智慧堡垒/智能壁垒/心智堡垒/心智壁垒</t>
@@ -669,7 +669,7 @@
 升环施法效应：使用四环或更高法术位施放本法术时，你使用的法术位每比三环高1环，就可以多选择一个生物作为目标。而各目标之间距离不能超过30尺。</t>
   </si>
   <si>
-    <t>5e 魂灵环绕</t>
+    <t>魂灵环绕</t>
   </si>
   <si>
     <t>魂灵环绕 Spirit Shroud(TCE)
@@ -685,7 +685,7 @@
 升环施法效应：使用四环或更高法术位施放本法术时，你使用的法术位每比三环高2环，其伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 精类召唤术</t>
+    <t>精类召唤术</t>
   </si>
   <si>
     <t>精类召唤术 Summon Fey(TCE)
@@ -720,7 +720,7 @@
 诡诈 Tricksy：在使用精类步后，该精类生物可以立即令魔法黑暗充斥于它5尺内的一个5尺立方区域，魔法黑暗持续直到精类生物的下回合结束。</t>
   </si>
   <si>
-    <t>5e 暗影衍体召唤术</t>
+    <t>暗影衍体召唤术</t>
   </si>
   <si>
     <t>暗影衍体召唤术 Summon Shadowspawn(TCE)
@@ -756,7 +756,7 @@
 暗影潜藏Shadow Stealth（仅限恐惧）。灵魄处于微光光照或黑暗环境时，可以一个附赠动作来执行躲藏动作。</t>
   </si>
   <si>
-    <t>5e 不死生物召唤术</t>
+    <t>不死生物召唤术</t>
   </si>
   <si>
     <t>不死召唤术/亡灵召唤术</t>
@@ -794,7 +794,7 @@
 腐烂爪击Rotting Claw（仅限于腐尸）。近战武器攻击：命中使用你的法术攻击调整值，触及5尺，单一目标。伤害：1d6+3+法术环阶的挥砍伤害。如果目标处于中毒状态，其必须进行一次体质豁免对抗你的法术豁免DC，否则麻痹直到目标下回合结束。</t>
   </si>
   <si>
-    <t>5e 异怪召唤术</t>
+    <t>异怪召唤术</t>
   </si>
   <si>
     <t>异怪召唤术 Summon Aberration(TCE)
@@ -828,7 +828,7 @@
 灵能猛击Psychic Slam（仅限星之子）。近战法术攻击：命中使用你的法术攻击调整值，触及5尺，单一生物。伤害：1d8+3+法术环阶的心灵伤害。</t>
   </si>
   <si>
-    <t>5e 构装体召唤术</t>
+    <t>构装体召唤术</t>
   </si>
   <si>
     <t>构装体召唤术 Summon Construct(TCE)
@@ -863,7 +863,7 @@
 狂怒乱击Berserk Lashing（仅限粘土）。当构装生物受到伤害时，对其5尺内的随机一个生物进行一次猛击攻击。如果在其触及范围内没有生物，则该构装生物会以其一半的速度朝着其可见的一个敌人移动，且不会引发借机攻击。</t>
   </si>
   <si>
-    <t>5e 元素召唤术</t>
+    <t>元素召唤术</t>
   </si>
   <si>
     <t>元素召唤术 Summon Elemental(TCE)
@@ -896,7 +896,7 @@
 猛击：近战武器攻击：命中采取你的法术攻击加值，触及5尺，单一目标；命中：1d10+4+法术环阶的钝击伤害（仅限气、土和水）或火焰伤害（仅限火）。</t>
   </si>
   <si>
-    <t>5e 天界生物召唤术</t>
+    <t>天界生物召唤术</t>
   </si>
   <si>
     <t>天界召唤术</t>
@@ -932,7 +932,7 @@
 治愈之触Healing Touch（1/日）。天界生物触碰另一生物。目标魔法性地恢复目标等同于2d8+法术环阶的生命值。</t>
   </si>
   <si>
-    <t>5e 邪魔召唤术</t>
+    <t>邪魔召唤术</t>
   </si>
   <si>
     <t>邪魔召唤术 Summon Fiend(TCE)
@@ -969,7 +969,7 @@
 投掷烈焰Hurl Flame（仅限于魔鬼）。远程法术攻击：命中使用你的法术攻击调整值，射程150尺，单一目标。伤害：2d6+3+法术环阶的火焰伤害。如果目标时未被着装或携带的可燃物件，则将被点燃。</t>
   </si>
   <si>
-    <t>5e 塔莎超凡形态</t>
+    <t>塔莎超凡形态</t>
   </si>
   <si>
     <t>塔莎超凡形态 Tasha's Otherworldly Guise(TCE)
@@ -988,7 +988,7 @@
 ·当你在自己的回合进行攻击动作时，你可以攻击两次而非一次。如果已经有类似的能力给予你额外的攻击次数，例如额外攻击Extra Attack，你无视这项增益。</t>
   </si>
   <si>
-    <t>5e 蓝纱一梦</t>
+    <t>蓝纱一梦</t>
   </si>
   <si>
     <t>蓝纱一梦 Dream of the Blue Veil(TCE)
@@ -1010,7 +1010,7 @@
 无论你用何种方法到达一个世界，由DM决定你是否成功，以及如果你真的到达那个国度，你到底出现在哪里。</t>
   </si>
   <si>
-    <t>5e 灾厄之刃</t>
+    <t>灾厄之刃</t>
   </si>
   <si>
     <t>灾厄之刃 Blade of Disaster(TCE)
@@ -6470,19 +6470,19 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:6">
+    <row r="1" customFormat="1" ht="14" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:3">
+    <row r="2" customFormat="1" ht="14" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:3">
+    <row r="3" customFormat="1" ht="14" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:3">
+    <row r="4" customFormat="1" ht="14" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:3">
+    <row r="5" customFormat="1" ht="14" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:3">
+    <row r="6" customFormat="1" ht="14" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:3">
+    <row r="7" customFormat="1" ht="14" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:3">
+    <row r="8" customFormat="1" ht="14" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:3">
+    <row r="9" customFormat="1" ht="14" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:3">
+    <row r="10" customFormat="1" ht="14" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:3">
+    <row r="11" customFormat="1" ht="14" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:3">
+    <row r="12" customFormat="1" ht="14" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:3">
+    <row r="13" customFormat="1" ht="14" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:3">
+    <row r="14" customFormat="1" ht="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:3">
+    <row r="15" customFormat="1" ht="14" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:3">
+    <row r="16" customFormat="1" ht="14" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:3">
+    <row r="17" customFormat="1" ht="14" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:3">
+    <row r="18" customFormat="1" ht="14" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:3">
+    <row r="19" customFormat="1" ht="14" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:3">
+    <row r="20" customFormat="1" ht="14" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:3">
+    <row r="21" customFormat="1" ht="14" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:3">
+    <row r="22" customFormat="1" ht="14" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -6723,15 +6723,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="2:3">
+    <row r="23" customFormat="1" ht="14" spans="1:3">
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="1" spans="2:3">
+    <row r="24" customFormat="1" ht="14" spans="1:3">
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="1" spans="2:3">
+    <row r="25" customFormat="1" ht="14" spans="1:3">
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
@@ -6748,19 +6751,19 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8148148148148" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6944444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5740740740741" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="10.8181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5727272727273" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:6">
+    <row r="1" customFormat="1" ht="14" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.4" spans="1:6">
+    <row r="2" customFormat="1" ht="14" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="14.4" spans="1:6">
+    <row r="3" customFormat="1" ht="14" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -6808,22 +6811,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.4" spans="1:3">
+    <row r="4" customFormat="1" ht="14" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="1" ht="14.4" spans="1:3">
+    <row r="5" customFormat="1" ht="14" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="1" ht="14.4" spans="1:3">
+    <row r="6" customFormat="1" ht="14" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="1" ht="14.4" spans="1:3">
+    <row r="7" customFormat="1" ht="14" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6845,14 +6848,14 @@
       <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.8148148148148" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81481481481481" style="1"/>
-    <col min="3" max="3" width="67.9074074074074" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.81481481481481" style="1"/>
-    <col min="7" max="7" width="9.93518518518519" style="1"/>
-    <col min="8" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="16.8181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="1"/>
+    <col min="3" max="3" width="67.9090909090909" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.81818181818182" style="1"/>
+    <col min="7" max="7" width="9.93636363636364" style="1"/>
+    <col min="8" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -7518,13 +7521,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.1111111111111" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.1090909090909" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="76.9074074074074" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.9090909090909" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:6">
+    <row r="1" customFormat="1" ht="14" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="2" customFormat="1" ht="14" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>160</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
+    <row r="3" customFormat="1" ht="14" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
+    <row r="4" customFormat="1" ht="14" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>165</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" customFormat="1" ht="14" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>167</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:6">
+    <row r="6" customFormat="1" ht="14" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>169</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
+    <row r="7" customFormat="1" ht="14" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
+    <row r="8" customFormat="1" ht="14" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>174</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
+    <row r="9" customFormat="1" ht="14" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>176</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" customFormat="1" ht="14" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>178</v>
       </c>
@@ -7661,7 +7664,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
+    <row r="11" customFormat="1" ht="14" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>180</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" customFormat="1" ht="14" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>182</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:6">
+    <row r="13" customFormat="1" ht="14" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>184</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:6">
+    <row r="14" customFormat="1" ht="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>186</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:6">
+    <row r="15" customFormat="1" ht="14" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>188</v>
       </c>
@@ -7721,7 +7724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:6">
+    <row r="16" customFormat="1" ht="14" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>190</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:6">
+    <row r="17" customFormat="1" ht="14" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>192</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:6">
+    <row r="18" customFormat="1" ht="14" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>194</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:6">
+    <row r="19" customFormat="1" ht="14" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>196</v>
       </c>
@@ -7769,7 +7772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:6">
+    <row r="20" customFormat="1" ht="14" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>198</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:6">
+    <row r="21" customFormat="1" ht="14" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>200</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:6">
+    <row r="22" customFormat="1" ht="14" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>202</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:6">
+    <row r="23" customFormat="1" ht="14" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>204</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:6">
+    <row r="24" customFormat="1" ht="14" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>206</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:6">
+    <row r="25" customFormat="1" ht="14" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>208</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:6">
+    <row r="26" customFormat="1" ht="14" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>210</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:6">
+    <row r="27" customFormat="1" ht="14" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>212</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:6">
+    <row r="28" customFormat="1" ht="14" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>214</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:6">
+    <row r="29" customFormat="1" ht="14" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>216</v>
       </c>
@@ -7898,7 +7901,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:6">
+    <row r="30" customFormat="1" ht="14" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>218</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:6">
+    <row r="31" customFormat="1" ht="14" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>220</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:6">
+    <row r="32" customFormat="1" ht="14" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>222</v>
       </c>
@@ -7943,7 +7946,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:6">
+    <row r="33" customFormat="1" ht="14" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>224</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:6">
+    <row r="34" customFormat="1" ht="14" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>226</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:6">
+    <row r="35" customFormat="1" ht="14" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>228</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:6">
+    <row r="36" customFormat="1" ht="14" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>230</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:6">
+    <row r="37" customFormat="1" ht="14" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>233</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:6">
+    <row r="38" customFormat="1" ht="14" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>236</v>
       </c>
@@ -8030,7 +8033,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:6">
+    <row r="39" customFormat="1" ht="14" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>238</v>
       </c>
@@ -8045,7 +8048,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:6">
+    <row r="40" customFormat="1" ht="14" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>240</v>
       </c>
@@ -8060,7 +8063,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:6">
+    <row r="41" customFormat="1" ht="14" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>242</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:6">
+    <row r="42" customFormat="1" ht="14" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:6">
+    <row r="43" customFormat="1" ht="14" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>246</v>
       </c>
@@ -8102,7 +8105,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:6">
+    <row r="44" customFormat="1" ht="14" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>249</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:6">
+    <row r="45" customFormat="1" ht="14" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>252</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:6">
+    <row r="46" customFormat="1" ht="14" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>254</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:6">
+    <row r="47" customFormat="1" ht="14" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>257</v>
       </c>
@@ -8164,7 +8167,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:6">
+    <row r="48" customFormat="1" ht="14" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>260</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="1:6">
+    <row r="49" customFormat="1" ht="14" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>262</v>
       </c>
@@ -8194,7 +8197,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="1:6">
+    <row r="50" customFormat="1" ht="14" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>264</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:6">
+    <row r="51" customFormat="1" ht="14" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>266</v>
       </c>
@@ -8224,7 +8227,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="1:6">
+    <row r="52" customFormat="1" ht="14" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>268</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" customFormat="1" spans="1:6">
+    <row r="53" customFormat="1" ht="14" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>270</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:6">
+    <row r="54" customFormat="1" ht="14" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>273</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:6">
+    <row r="55" customFormat="1" ht="14" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>276</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="1:6">
+    <row r="56" customFormat="1" ht="14" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>278</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="1:6">
+    <row r="57" customFormat="1" ht="14" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>280</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="1:6">
+    <row r="58" customFormat="1" ht="14" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>282</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="1:6">
+    <row r="59" customFormat="1" ht="14" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>285</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="1:6">
+    <row r="60" customFormat="1" ht="14" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>287</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:6">
+    <row r="61" customFormat="1" ht="14" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>289</v>
       </c>
@@ -8371,7 +8374,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:6">
+    <row r="62" customFormat="1" ht="14" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>291</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="1:6">
+    <row r="63" customFormat="1" ht="14" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>294</v>
       </c>
@@ -8398,7 +8401,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:6">
+    <row r="64" customFormat="1" ht="14" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>297</v>
       </c>
@@ -8413,7 +8416,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="1:6">
+    <row r="65" customFormat="1" ht="14" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>299</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:6">
+    <row r="66" customFormat="1" ht="14" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>301</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="1:6">
+    <row r="67" customFormat="1" ht="14" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>303</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="1:6">
+    <row r="68" customFormat="1" ht="14" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>305</v>
       </c>
@@ -8473,7 +8476,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:6">
+    <row r="69" customFormat="1" ht="14" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>307</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="1:6">
+    <row r="70" customFormat="1" ht="14" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>309</v>
       </c>
@@ -8499,11 +8502,12 @@
       <c r="D70" t="s">
         <v>311</v>
       </c>
+      <c r="E70"/>
       <c r="F70" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="1:6">
+    <row r="71" customFormat="1" ht="14" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>313</v>
       </c>
@@ -8514,11 +8518,12 @@
       <c r="D71" t="s">
         <v>311</v>
       </c>
+      <c r="E71"/>
       <c r="F71" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="1:6">
+    <row r="72" customFormat="1" ht="14" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>315</v>
       </c>
@@ -8526,11 +8531,13 @@
       <c r="C72" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="D72"/>
+      <c r="E72"/>
       <c r="F72" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="1:6">
+    <row r="73" customFormat="1" ht="14" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>318</v>
       </c>
@@ -8541,11 +8548,12 @@
       <c r="D73" t="s">
         <v>320</v>
       </c>
+      <c r="E73"/>
       <c r="F73" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="74" customFormat="1" spans="1:6">
+    <row r="74" customFormat="1" ht="14" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>321</v>
       </c>
@@ -8556,11 +8564,12 @@
       <c r="D74" t="s">
         <v>320</v>
       </c>
+      <c r="E74"/>
       <c r="F74" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="75" customFormat="1" spans="1:6">
+    <row r="75" customFormat="1" ht="14" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>323</v>
       </c>
@@ -8571,11 +8580,12 @@
       <c r="D75" t="s">
         <v>320</v>
       </c>
+      <c r="E75"/>
       <c r="F75" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="1:6">
+    <row r="76" customFormat="1" ht="14" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>325</v>
       </c>
@@ -8586,11 +8596,12 @@
       <c r="D76" t="s">
         <v>320</v>
       </c>
+      <c r="E76"/>
       <c r="F76" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:6">
+    <row r="77" customFormat="1" ht="14" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>327</v>
       </c>
@@ -8598,11 +8609,13 @@
       <c r="C77" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D77"/>
+      <c r="E77"/>
       <c r="F77" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:6">
+    <row r="78" customFormat="1" ht="14" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>330</v>
       </c>
@@ -8613,11 +8626,12 @@
       <c r="D78" t="s">
         <v>332</v>
       </c>
+      <c r="E78"/>
       <c r="F78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:6">
+    <row r="79" customFormat="1" ht="14" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>333</v>
       </c>
@@ -8628,11 +8642,12 @@
       <c r="D79" t="s">
         <v>332</v>
       </c>
+      <c r="E79"/>
       <c r="F79" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:6">
+    <row r="80" customFormat="1" ht="14" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>335</v>
       </c>
@@ -8643,11 +8658,12 @@
       <c r="D80" t="s">
         <v>332</v>
       </c>
+      <c r="E80"/>
       <c r="F80" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:6">
+    <row r="81" customFormat="1" ht="14" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>337</v>
       </c>
@@ -8658,11 +8674,12 @@
       <c r="D81" t="s">
         <v>332</v>
       </c>
+      <c r="E81"/>
       <c r="F81" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="1:6">
+    <row r="82" customFormat="1" ht="14" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>339</v>
       </c>
@@ -8673,11 +8690,12 @@
       <c r="D82" t="s">
         <v>332</v>
       </c>
+      <c r="E82"/>
       <c r="F82" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="1:6">
+    <row r="83" customFormat="1" ht="14" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>341</v>
       </c>
@@ -8688,11 +8706,12 @@
       <c r="D83" t="s">
         <v>343</v>
       </c>
+      <c r="E83"/>
       <c r="F83" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="1:6">
+    <row r="84" customFormat="1" ht="14" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>345</v>
       </c>
@@ -8703,11 +8722,12 @@
       <c r="D84" t="s">
         <v>343</v>
       </c>
+      <c r="E84"/>
       <c r="F84" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="1:6">
+    <row r="85" customFormat="1" ht="14" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>347</v>
       </c>
@@ -8715,11 +8735,13 @@
       <c r="C85" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="D85"/>
+      <c r="E85"/>
       <c r="F85" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="1:6">
+    <row r="86" customFormat="1" ht="14" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>350</v>
       </c>
@@ -8730,11 +8752,12 @@
       <c r="D86" t="s">
         <v>352</v>
       </c>
+      <c r="E86"/>
       <c r="F86" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="1:6">
+    <row r="87" customFormat="1" ht="14" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>353</v>
       </c>
@@ -8745,11 +8768,12 @@
       <c r="D87" t="s">
         <v>352</v>
       </c>
+      <c r="E87"/>
       <c r="F87" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="1:6">
+    <row r="88" customFormat="1" ht="14" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>355</v>
       </c>
@@ -8760,11 +8784,12 @@
       <c r="D88" t="s">
         <v>352</v>
       </c>
+      <c r="E88"/>
       <c r="F88" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="89" customFormat="1" spans="1:6">
+    <row r="89" customFormat="1" ht="14" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>357</v>
       </c>
@@ -8775,11 +8800,12 @@
       <c r="D89" t="s">
         <v>359</v>
       </c>
+      <c r="E89"/>
       <c r="F89" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="1:6">
+    <row r="90" customFormat="1" ht="14" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>360</v>
       </c>
@@ -8790,11 +8816,12 @@
       <c r="D90" t="s">
         <v>352</v>
       </c>
+      <c r="E90"/>
       <c r="F90" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="91" customFormat="1" spans="1:6">
+    <row r="91" customFormat="1" ht="14" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>362</v>
       </c>
@@ -8802,11 +8829,13 @@
       <c r="C91" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="D91"/>
+      <c r="E91"/>
       <c r="F91" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:6">
+    <row r="92" customFormat="1" ht="14" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>365</v>
       </c>
@@ -8817,11 +8846,12 @@
       <c r="D92" t="s">
         <v>367</v>
       </c>
+      <c r="E92"/>
       <c r="F92" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="1:6">
+    <row r="93" customFormat="1" ht="14" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>368</v>
       </c>
@@ -8832,11 +8862,12 @@
       <c r="D93" t="s">
         <v>367</v>
       </c>
+      <c r="E93"/>
       <c r="F93" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="94" customFormat="1" spans="1:6">
+    <row r="94" customFormat="1" ht="14" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>370</v>
       </c>
@@ -8847,11 +8878,12 @@
       <c r="D94" t="s">
         <v>367</v>
       </c>
+      <c r="E94"/>
       <c r="F94" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" customFormat="1" spans="1:6">
+    <row r="95" customFormat="1" ht="14" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>372</v>
       </c>
@@ -8862,11 +8894,12 @@
       <c r="D95" t="s">
         <v>367</v>
       </c>
+      <c r="E95"/>
       <c r="F95" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="96" customFormat="1" spans="1:6">
+    <row r="96" customFormat="1" ht="14" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>374</v>
       </c>
@@ -8877,11 +8910,12 @@
       <c r="D96" t="s">
         <v>367</v>
       </c>
+      <c r="E96"/>
       <c r="F96" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="97" customFormat="1" spans="1:6">
+    <row r="97" customFormat="1" ht="14" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>376</v>
       </c>
@@ -8892,11 +8926,12 @@
       <c r="D97" t="s">
         <v>378</v>
       </c>
+      <c r="E97"/>
       <c r="F97" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="98" customFormat="1" spans="1:6">
+    <row r="98" customFormat="1" ht="14" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>380</v>
       </c>
@@ -8907,11 +8942,12 @@
       <c r="D98" t="s">
         <v>378</v>
       </c>
+      <c r="E98"/>
       <c r="F98" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="1:6">
+    <row r="99" customFormat="1" ht="14" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>382</v>
       </c>
@@ -8922,11 +8958,12 @@
       <c r="D99" t="s">
         <v>378</v>
       </c>
+      <c r="E99"/>
       <c r="F99" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="100" customFormat="1" spans="1:6">
+    <row r="100" customFormat="1" ht="14" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>384</v>
       </c>
@@ -8934,11 +8971,13 @@
       <c r="C100" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="D100"/>
+      <c r="E100"/>
       <c r="F100" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="101" customFormat="1" spans="1:6">
+    <row r="101" customFormat="1" ht="14" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>387</v>
       </c>
@@ -8946,11 +8985,13 @@
       <c r="C101" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="D101"/>
+      <c r="E101"/>
       <c r="F101" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:6">
+    <row r="102" customFormat="1" ht="14" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>389</v>
       </c>
@@ -8961,11 +9002,12 @@
       <c r="D102" t="s">
         <v>391</v>
       </c>
+      <c r="E102"/>
       <c r="F102" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="103" customFormat="1" spans="1:6">
+    <row r="103" customFormat="1" ht="14" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>392</v>
       </c>
@@ -8976,11 +9018,12 @@
       <c r="D103" t="s">
         <v>391</v>
       </c>
+      <c r="E103"/>
       <c r="F103" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="104" customFormat="1" spans="1:6">
+    <row r="104" customFormat="1" ht="14" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>394</v>
       </c>
@@ -8991,11 +9034,12 @@
       <c r="D104" t="s">
         <v>391</v>
       </c>
+      <c r="E104"/>
       <c r="F104" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="105" customFormat="1" spans="1:6">
+    <row r="105" customFormat="1" ht="14" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>397</v>
       </c>
@@ -9006,11 +9050,12 @@
       <c r="D105" t="s">
         <v>391</v>
       </c>
+      <c r="E105"/>
       <c r="F105" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="106" customFormat="1" spans="1:6">
+    <row r="106" customFormat="1" ht="14" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>399</v>
       </c>
@@ -9021,11 +9066,12 @@
       <c r="D106" t="s">
         <v>391</v>
       </c>
+      <c r="E106"/>
       <c r="F106" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" customFormat="1" spans="1:6">
+    <row r="107" customFormat="1" ht="14" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>401</v>
       </c>
@@ -9036,11 +9082,12 @@
       <c r="D107" t="s">
         <v>391</v>
       </c>
+      <c r="E107"/>
       <c r="F107" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="1:6">
+    <row r="108" customFormat="1" ht="14" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>403</v>
       </c>
@@ -9051,11 +9098,12 @@
       <c r="D108" t="s">
         <v>405</v>
       </c>
+      <c r="E108"/>
       <c r="F108" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="109" customFormat="1" spans="1:6">
+    <row r="109" customFormat="1" ht="14" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>407</v>
       </c>
@@ -9063,11 +9111,13 @@
       <c r="C109" s="2" t="s">
         <v>408</v>
       </c>
+      <c r="D109"/>
+      <c r="E109"/>
       <c r="F109" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="110" customFormat="1" spans="1:6">
+    <row r="110" customFormat="1" ht="14" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>409</v>
       </c>
@@ -9075,11 +9125,13 @@
       <c r="C110" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="D110"/>
+      <c r="E110"/>
       <c r="F110" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" customFormat="1" spans="1:6">
+    <row r="111" customFormat="1" ht="14" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>411</v>
       </c>
@@ -9090,11 +9142,12 @@
       <c r="D111" t="s">
         <v>405</v>
       </c>
+      <c r="E111"/>
       <c r="F111" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="112" customFormat="1" spans="1:6">
+    <row r="112" customFormat="1" ht="14" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>413</v>
       </c>
@@ -9105,11 +9158,12 @@
       <c r="D112" t="s">
         <v>405</v>
       </c>
+      <c r="E112"/>
       <c r="F112" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="113" customFormat="1" spans="1:6">
+    <row r="113" customFormat="1" ht="14" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>416</v>
       </c>
@@ -9120,11 +9174,12 @@
       <c r="D113" t="s">
         <v>405</v>
       </c>
+      <c r="E113"/>
       <c r="F113" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="114" customFormat="1" spans="1:6">
+    <row r="114" customFormat="1" ht="14" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>418</v>
       </c>
@@ -9135,11 +9190,12 @@
       <c r="D114" t="s">
         <v>405</v>
       </c>
+      <c r="E114"/>
       <c r="F114" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="115" customFormat="1" spans="1:6">
+    <row r="115" customFormat="1" ht="14" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>420</v>
       </c>
@@ -9150,11 +9206,12 @@
       <c r="D115" t="s">
         <v>405</v>
       </c>
+      <c r="E115"/>
       <c r="F115" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="116" customFormat="1" spans="1:6">
+    <row r="116" customFormat="1" ht="14" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>422</v>
       </c>
@@ -9162,11 +9219,13 @@
       <c r="C116" s="2" t="s">
         <v>423</v>
       </c>
+      <c r="D116"/>
+      <c r="E116"/>
       <c r="F116" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="117" customFormat="1" spans="1:6">
+    <row r="117" customFormat="1" ht="14" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>425</v>
       </c>
@@ -9174,11 +9233,13 @@
       <c r="C117" s="2" t="s">
         <v>426</v>
       </c>
+      <c r="D117"/>
+      <c r="E117"/>
       <c r="F117" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="118" customFormat="1" spans="1:6">
+    <row r="118" customFormat="1" ht="14" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>427</v>
       </c>
@@ -9189,11 +9250,12 @@
       <c r="D118" t="s">
         <v>429</v>
       </c>
+      <c r="E118"/>
       <c r="F118" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="119" customFormat="1" spans="1:6">
+    <row r="119" customFormat="1" ht="14" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>430</v>
       </c>
@@ -9204,11 +9266,12 @@
       <c r="D119" t="s">
         <v>429</v>
       </c>
+      <c r="E119"/>
       <c r="F119" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="120" customFormat="1" spans="1:6">
+    <row r="120" customFormat="1" ht="14" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>432</v>
       </c>
@@ -9219,11 +9282,12 @@
       <c r="D120" t="s">
         <v>429</v>
       </c>
+      <c r="E120"/>
       <c r="F120" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="121" customFormat="1" spans="1:6">
+    <row r="121" customFormat="1" ht="14" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>434</v>
       </c>
@@ -9234,11 +9298,12 @@
       <c r="D121" t="s">
         <v>429</v>
       </c>
+      <c r="E121"/>
       <c r="F121" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="122" customFormat="1" spans="1:6">
+    <row r="122" customFormat="1" ht="14" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>437</v>
       </c>
@@ -9249,11 +9314,12 @@
       <c r="D122" t="s">
         <v>429</v>
       </c>
+      <c r="E122"/>
       <c r="F122" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="123" customFormat="1" spans="1:6">
+    <row r="123" customFormat="1" ht="14" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>439</v>
       </c>
@@ -9264,11 +9330,12 @@
       <c r="D123" t="s">
         <v>429</v>
       </c>
+      <c r="E123"/>
       <c r="F123" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="124" customFormat="1" spans="1:6">
+    <row r="124" customFormat="1" ht="14" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>441</v>
       </c>
@@ -9279,11 +9346,12 @@
       <c r="D124" t="s">
         <v>429</v>
       </c>
+      <c r="E124"/>
       <c r="F124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" customFormat="1" spans="1:6">
+    <row r="125" customFormat="1" ht="14" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>443</v>
       </c>
@@ -9294,11 +9362,12 @@
       <c r="D125" t="s">
         <v>445</v>
       </c>
+      <c r="E125"/>
       <c r="F125" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="126" customFormat="1" spans="1:6">
+    <row r="126" customFormat="1" ht="14" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>447</v>
       </c>
@@ -9311,11 +9380,12 @@
       <c r="D126" t="s">
         <v>445</v>
       </c>
+      <c r="E126"/>
       <c r="F126" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="127" customFormat="1" spans="1:6">
+    <row r="127" customFormat="1" ht="14" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>450</v>
       </c>
@@ -9326,11 +9396,12 @@
       <c r="D127" t="s">
         <v>7</v>
       </c>
+      <c r="E127"/>
       <c r="F127" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="128" customFormat="1" spans="1:6">
+    <row r="128" customFormat="1" ht="14" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>453</v>
       </c>
@@ -9341,11 +9412,12 @@
       <c r="D128" t="s">
         <v>455</v>
       </c>
+      <c r="E128"/>
       <c r="F128" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="129" customFormat="1" spans="1:6">
+    <row r="129" customFormat="1" ht="14" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>456</v>
       </c>
@@ -9356,11 +9428,12 @@
       <c r="D129" t="s">
         <v>455</v>
       </c>
+      <c r="E129"/>
       <c r="F129" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="130" customFormat="1" spans="1:6">
+    <row r="130" customFormat="1" ht="14" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>458</v>
       </c>
@@ -9371,11 +9444,12 @@
       <c r="D130" t="s">
         <v>455</v>
       </c>
+      <c r="E130"/>
       <c r="F130" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="131" customFormat="1" spans="1:6">
+    <row r="131" customFormat="1" ht="14" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>460</v>
       </c>
@@ -9386,11 +9460,12 @@
       <c r="D131" t="s">
         <v>455</v>
       </c>
+      <c r="E131"/>
       <c r="F131" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="132" customFormat="1" spans="1:6">
+    <row r="132" customFormat="1" ht="14" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>462</v>
       </c>
@@ -9401,11 +9476,12 @@
       <c r="D132" t="s">
         <v>455</v>
       </c>
+      <c r="E132"/>
       <c r="F132" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="133" customFormat="1" spans="1:6">
+    <row r="133" customFormat="1" ht="14" spans="1:6">
       <c r="A133" s="2" t="s">
         <v>464</v>
       </c>
@@ -9416,11 +9492,12 @@
       <c r="D133" t="s">
         <v>455</v>
       </c>
+      <c r="E133"/>
       <c r="F133" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="134" customFormat="1" spans="1:6">
+    <row r="134" customFormat="1" ht="14" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>466</v>
       </c>
@@ -9431,11 +9508,12 @@
       <c r="D134" t="s">
         <v>7</v>
       </c>
+      <c r="E134"/>
       <c r="F134" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="135" customFormat="1" spans="1:6">
+    <row r="135" customFormat="1" ht="14" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>469</v>
       </c>
@@ -9446,11 +9524,12 @@
       <c r="D135" t="s">
         <v>471</v>
       </c>
+      <c r="E135"/>
       <c r="F135" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="136" customFormat="1" spans="1:6">
+    <row r="136" customFormat="1" ht="14" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>472</v>
       </c>
@@ -9463,11 +9542,12 @@
       <c r="D136" t="s">
         <v>471</v>
       </c>
+      <c r="E136"/>
       <c r="F136" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="137" customFormat="1" spans="1:6">
+    <row r="137" customFormat="1" ht="14" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>475</v>
       </c>
@@ -9478,11 +9558,12 @@
       <c r="D137" t="s">
         <v>471</v>
       </c>
+      <c r="E137"/>
       <c r="F137" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="138" customFormat="1" spans="1:6">
+    <row r="138" customFormat="1" ht="14" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>477</v>
       </c>
@@ -9493,11 +9574,12 @@
       <c r="D138" t="s">
         <v>471</v>
       </c>
+      <c r="E138"/>
       <c r="F138" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="139" customFormat="1" spans="1:6">
+    <row r="139" customFormat="1" ht="14" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>479</v>
       </c>
@@ -9508,11 +9590,12 @@
       <c r="D139" t="s">
         <v>471</v>
       </c>
+      <c r="E139"/>
       <c r="F139" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="140" customFormat="1" spans="1:6">
+    <row r="140" customFormat="1" ht="14" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>481</v>
       </c>
@@ -9523,11 +9606,12 @@
       <c r="D140" t="s">
         <v>7</v>
       </c>
+      <c r="E140"/>
       <c r="F140" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="141" customFormat="1" spans="1:6">
+    <row r="141" customFormat="1" ht="14" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>484</v>
       </c>
@@ -9538,11 +9622,12 @@
       <c r="D141" t="s">
         <v>486</v>
       </c>
+      <c r="E141"/>
       <c r="F141" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="142" customFormat="1" spans="1:6">
+    <row r="142" customFormat="1" ht="14" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>487</v>
       </c>
@@ -9553,11 +9638,12 @@
       <c r="D142" t="s">
         <v>486</v>
       </c>
+      <c r="E142"/>
       <c r="F142" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="143" customFormat="1" spans="1:6">
+    <row r="143" customFormat="1" ht="14" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>489</v>
       </c>
@@ -9568,11 +9654,12 @@
       <c r="D143" t="s">
         <v>491</v>
       </c>
+      <c r="E143"/>
       <c r="F143" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="144" customFormat="1" spans="1:6">
+    <row r="144" customFormat="1" ht="14" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>492</v>
       </c>
@@ -9583,11 +9670,12 @@
       <c r="D144" t="s">
         <v>486</v>
       </c>
+      <c r="E144"/>
       <c r="F144" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="145" customFormat="1" spans="1:6">
+    <row r="145" customFormat="1" ht="14" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>494</v>
       </c>
@@ -9598,11 +9686,12 @@
       <c r="D145" t="s">
         <v>486</v>
       </c>
+      <c r="E145"/>
       <c r="F145" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="146" customFormat="1" spans="1:6">
+    <row r="146" customFormat="1" ht="14" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>496</v>
       </c>
@@ -9613,11 +9702,12 @@
       <c r="D146" t="s">
         <v>486</v>
       </c>
+      <c r="E146"/>
       <c r="F146" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="147" customFormat="1" spans="1:6">
+    <row r="147" customFormat="1" ht="14" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>498</v>
       </c>
@@ -9629,7 +9719,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" customFormat="1" spans="1:6">
+    <row r="148" customFormat="1" ht="14" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>501</v>
       </c>
@@ -9641,7 +9731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" customFormat="1" spans="1:6">
+    <row r="149" customFormat="1" ht="14" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>503</v>
       </c>
@@ -9653,7 +9743,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="150" customFormat="1" spans="1:6">
+    <row r="150" customFormat="1" ht="14" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>505</v>
       </c>
@@ -9665,7 +9755,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" customFormat="1" spans="1:6">
+    <row r="151" customFormat="1" ht="14" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>507</v>
       </c>
@@ -9677,7 +9767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="152" customFormat="1" spans="1:6">
+    <row r="152" customFormat="1" ht="14" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>509</v>
       </c>
@@ -9692,7 +9782,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="153" customFormat="1" spans="1:6">
+    <row r="153" customFormat="1" ht="14" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>513</v>
       </c>
@@ -9704,7 +9794,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="154" customFormat="1" spans="1:6">
+    <row r="154" customFormat="1" ht="14" spans="1:6">
       <c r="A154" s="2" t="s">
         <v>516</v>
       </c>
@@ -9716,7 +9806,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="155" customFormat="1" spans="1:6">
+    <row r="155" customFormat="1" ht="14" spans="1:6">
       <c r="A155" s="2" t="s">
         <v>518</v>
       </c>
@@ -9728,7 +9818,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="156" customFormat="1" spans="1:6">
+    <row r="156" customFormat="1" ht="14" spans="1:6">
       <c r="A156" s="2" t="s">
         <v>520</v>
       </c>
@@ -9740,7 +9830,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="157" customFormat="1" spans="1:6">
+    <row r="157" customFormat="1" ht="14" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>522</v>
       </c>
@@ -9752,7 +9842,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="158" customFormat="1" spans="1:6">
+    <row r="158" customFormat="1" ht="14" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>524</v>
       </c>
@@ -9764,7 +9854,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="159" customFormat="1" spans="1:6">
+    <row r="159" customFormat="1" ht="14" spans="1:6">
       <c r="A159" s="2" t="s">
         <v>526</v>
       </c>
@@ -9776,7 +9866,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="160" customFormat="1" spans="1:6">
+    <row r="160" customFormat="1" ht="14" spans="1:6">
       <c r="A160" s="2" t="s">
         <v>528</v>
       </c>
@@ -9793,7 +9883,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="161" customFormat="1" spans="1:6">
+    <row r="161" customFormat="1" ht="14" spans="1:6">
       <c r="A161" s="2" t="s">
         <v>532</v>
       </c>
@@ -9808,7 +9898,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="162" customFormat="1" spans="1:6">
+    <row r="162" customFormat="1" ht="14" spans="1:6">
       <c r="A162" s="2" t="s">
         <v>535</v>
       </c>
@@ -9825,7 +9915,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="163" customFormat="1" spans="1:6">
+    <row r="163" customFormat="1" ht="14" spans="1:6">
       <c r="A163" s="2" t="s">
         <v>538</v>
       </c>
@@ -9840,7 +9930,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="164" customFormat="1" spans="1:6">
+    <row r="164" customFormat="1" ht="14" spans="1:6">
       <c r="A164" s="2" t="s">
         <v>540</v>
       </c>
@@ -9857,7 +9947,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="165" customFormat="1" spans="1:6">
+    <row r="165" customFormat="1" ht="14" spans="1:6">
       <c r="A165" s="2" t="s">
         <v>543</v>
       </c>
@@ -9872,7 +9962,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="166" customFormat="1" spans="1:6">
+    <row r="166" customFormat="1" ht="14" spans="1:6">
       <c r="A166" s="2" t="s">
         <v>545</v>
       </c>
@@ -9887,7 +9977,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="167" customFormat="1" spans="1:6">
+    <row r="167" customFormat="1" ht="14" spans="1:6">
       <c r="A167" s="2" t="s">
         <v>547</v>
       </c>
@@ -9902,7 +9992,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="168" customFormat="1" spans="1:6">
+    <row r="168" customFormat="1" ht="14" spans="1:6">
       <c r="A168" s="2" t="s">
         <v>549</v>
       </c>
@@ -9917,7 +10007,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="169" customFormat="1" spans="1:6">
+    <row r="169" customFormat="1" ht="14" spans="1:6">
       <c r="A169" s="2" t="s">
         <v>551</v>
       </c>
@@ -9932,7 +10022,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="170" customFormat="1" spans="1:6">
+    <row r="170" customFormat="1" ht="14" spans="1:6">
       <c r="A170" s="2" t="s">
         <v>553</v>
       </c>
@@ -9947,7 +10037,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="171" customFormat="1" spans="1:6">
+    <row r="171" customFormat="1" ht="14" spans="1:6">
       <c r="A171" s="2" t="s">
         <v>555</v>
       </c>
@@ -9962,7 +10052,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="172" customFormat="1" spans="1:6">
+    <row r="172" customFormat="1" ht="14" spans="1:6">
       <c r="A172" s="2" t="s">
         <v>558</v>
       </c>
@@ -9977,7 +10067,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="173" customFormat="1" spans="1:6">
+    <row r="173" customFormat="1" ht="14" spans="1:6">
       <c r="A173" s="2" t="s">
         <v>561</v>
       </c>
@@ -9992,7 +10082,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="174" customFormat="1" spans="1:6">
+    <row r="174" customFormat="1" ht="14" spans="1:6">
       <c r="A174" s="2" t="s">
         <v>563</v>
       </c>
@@ -10007,7 +10097,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="175" customFormat="1" spans="1:6">
+    <row r="175" customFormat="1" ht="14" spans="1:6">
       <c r="A175" s="2" t="s">
         <v>567</v>
       </c>
@@ -10022,7 +10112,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="176" customFormat="1" spans="1:6">
+    <row r="176" customFormat="1" ht="14" spans="1:6">
       <c r="A176" s="2" t="s">
         <v>569</v>
       </c>
@@ -10037,7 +10127,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="177" customFormat="1" spans="1:6">
+    <row r="177" customFormat="1" ht="14" spans="1:6">
       <c r="A177" s="2" t="s">
         <v>571</v>
       </c>
@@ -10052,7 +10142,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="178" customFormat="1" spans="1:6">
+    <row r="178" customFormat="1" ht="14" spans="1:6">
       <c r="A178" s="2" t="s">
         <v>573</v>
       </c>
@@ -10067,7 +10157,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="179" customFormat="1" spans="1:6">
+    <row r="179" customFormat="1" ht="14" spans="1:6">
       <c r="A179" s="2" t="s">
         <v>575</v>
       </c>
@@ -10082,7 +10172,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="180" customFormat="1" spans="1:6">
+    <row r="180" customFormat="1" ht="14" spans="1:6">
       <c r="A180" s="2" t="s">
         <v>577</v>
       </c>
@@ -10097,7 +10187,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="181" customFormat="1" spans="1:6">
+    <row r="181" customFormat="1" ht="14" spans="1:6">
       <c r="A181" s="2" t="s">
         <v>579</v>
       </c>
@@ -10112,7 +10202,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" customFormat="1" spans="1:6">
+    <row r="182" customFormat="1" ht="14" spans="1:6">
       <c r="A182" s="2" t="s">
         <v>581</v>
       </c>
@@ -10127,7 +10217,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="183" customFormat="1" spans="1:6">
+    <row r="183" customFormat="1" ht="14" spans="1:6">
       <c r="A183" s="2" t="s">
         <v>583</v>
       </c>
@@ -10142,7 +10232,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="184" customFormat="1" spans="1:6">
+    <row r="184" customFormat="1" ht="14" spans="1:6">
       <c r="A184" s="2" t="s">
         <v>585</v>
       </c>
@@ -10157,7 +10247,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="185" customFormat="1" spans="1:6">
+    <row r="185" customFormat="1" ht="14" spans="1:6">
       <c r="A185" s="2" t="s">
         <v>587</v>
       </c>
@@ -10168,11 +10258,12 @@
       <c r="D185" t="s">
         <v>589</v>
       </c>
+      <c r="E185"/>
       <c r="F185" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="186" customFormat="1" spans="1:6">
+    <row r="186" customFormat="1" ht="14" spans="1:6">
       <c r="A186" s="2" t="s">
         <v>591</v>
       </c>
@@ -10183,11 +10274,12 @@
       <c r="D186" t="s">
         <v>589</v>
       </c>
+      <c r="E186"/>
       <c r="F186" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="187" customFormat="1" spans="1:6">
+    <row r="187" customFormat="1" ht="14" spans="1:6">
       <c r="A187" s="2" t="s">
         <v>593</v>
       </c>
@@ -10198,11 +10290,12 @@
       <c r="D187" t="s">
         <v>589</v>
       </c>
+      <c r="E187"/>
       <c r="F187" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="188" customFormat="1" spans="1:6">
+    <row r="188" customFormat="1" ht="14" spans="1:6">
       <c r="A188" s="2" t="s">
         <v>595</v>
       </c>
@@ -10213,11 +10306,12 @@
       <c r="D188" t="s">
         <v>589</v>
       </c>
+      <c r="E188"/>
       <c r="F188" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="189" customFormat="1" spans="1:6">
+    <row r="189" customFormat="1" ht="14" spans="1:6">
       <c r="A189" s="2" t="s">
         <v>597</v>
       </c>
@@ -10228,11 +10322,12 @@
       <c r="D189" t="s">
         <v>7</v>
       </c>
+      <c r="E189"/>
       <c r="F189" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="190" customFormat="1" spans="1:6">
+    <row r="190" customFormat="1" ht="14" spans="1:6">
       <c r="A190" s="2" t="s">
         <v>600</v>
       </c>
@@ -10243,11 +10338,12 @@
       <c r="D190" t="s">
         <v>602</v>
       </c>
+      <c r="E190"/>
       <c r="F190" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="191" customFormat="1" spans="1:6">
+    <row r="191" customFormat="1" ht="14" spans="1:6">
       <c r="A191" s="2" t="s">
         <v>603</v>
       </c>
@@ -10258,11 +10354,12 @@
       <c r="D191" t="s">
         <v>602</v>
       </c>
+      <c r="E191"/>
       <c r="F191" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="192" customFormat="1" spans="1:6">
+    <row r="192" customFormat="1" ht="14" spans="1:6">
       <c r="A192" s="2" t="s">
         <v>605</v>
       </c>
@@ -10273,11 +10370,12 @@
       <c r="D192" t="s">
         <v>602</v>
       </c>
+      <c r="E192"/>
       <c r="F192" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="193" customFormat="1" spans="1:6">
+    <row r="193" customFormat="1" ht="14" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>607</v>
       </c>
@@ -10288,11 +10386,12 @@
       <c r="D193" t="s">
         <v>602</v>
       </c>
+      <c r="E193"/>
       <c r="F193" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="194" customFormat="1" spans="1:6">
+    <row r="194" customFormat="1" ht="14" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>609</v>
       </c>
@@ -10303,11 +10402,12 @@
       <c r="D194" t="s">
         <v>602</v>
       </c>
+      <c r="E194"/>
       <c r="F194" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="195" customFormat="1" spans="1:6">
+    <row r="195" customFormat="1" ht="14" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>611</v>
       </c>
@@ -10318,11 +10418,12 @@
       <c r="D195" t="s">
         <v>602</v>
       </c>
+      <c r="E195"/>
       <c r="F195" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="196" customFormat="1" spans="1:6">
+    <row r="196" customFormat="1" ht="14" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>613</v>
       </c>
@@ -10333,11 +10434,12 @@
       <c r="D196" t="s">
         <v>7</v>
       </c>
+      <c r="E196"/>
       <c r="F196" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="197" customFormat="1" spans="1:6">
+    <row r="197" customFormat="1" ht="14" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>616</v>
       </c>
@@ -10348,11 +10450,12 @@
       <c r="D197" t="s">
         <v>618</v>
       </c>
+      <c r="E197"/>
       <c r="F197" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="198" customFormat="1" spans="1:6">
+    <row r="198" customFormat="1" ht="14" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>619</v>
       </c>
@@ -10363,11 +10466,12 @@
       <c r="D198" t="s">
         <v>618</v>
       </c>
+      <c r="E198"/>
       <c r="F198" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="199" customFormat="1" spans="1:6">
+    <row r="199" customFormat="1" ht="14" spans="1:6">
       <c r="A199" s="2" t="s">
         <v>621</v>
       </c>
@@ -10378,11 +10482,12 @@
       <c r="D199" t="s">
         <v>618</v>
       </c>
+      <c r="E199"/>
       <c r="F199" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="200" customFormat="1" spans="1:6">
+    <row r="200" customFormat="1" ht="14" spans="1:6">
       <c r="A200" s="2" t="s">
         <v>623</v>
       </c>
@@ -10393,11 +10498,12 @@
       <c r="D200" t="s">
         <v>618</v>
       </c>
+      <c r="E200"/>
       <c r="F200" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="201" customFormat="1" spans="1:6">
+    <row r="201" customFormat="1" ht="14" spans="1:6">
       <c r="A201" s="2" t="s">
         <v>625</v>
       </c>
@@ -10405,11 +10511,13 @@
       <c r="C201" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="D201"/>
+      <c r="E201"/>
       <c r="F201" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="202" customFormat="1" spans="1:6">
+    <row r="202" customFormat="1" ht="14" spans="1:6">
       <c r="A202" s="2" t="s">
         <v>627</v>
       </c>
@@ -10422,11 +10530,12 @@
       <c r="D202" t="s">
         <v>630</v>
       </c>
+      <c r="E202"/>
       <c r="F202" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="203" customFormat="1" spans="1:6">
+    <row r="203" customFormat="1" ht="14" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>632</v>
       </c>
@@ -10439,11 +10548,12 @@
       <c r="D203" t="s">
         <v>630</v>
       </c>
+      <c r="E203"/>
       <c r="F203" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="204" customFormat="1" spans="1:6">
+    <row r="204" customFormat="1" ht="14" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>635</v>
       </c>
@@ -10454,11 +10564,12 @@
       <c r="D204" t="s">
         <v>7</v>
       </c>
+      <c r="E204"/>
       <c r="F204" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="205" customFormat="1" spans="1:6">
+    <row r="205" customFormat="1" ht="14" spans="1:6">
       <c r="A205" s="2" t="s">
         <v>638</v>
       </c>
@@ -10469,11 +10580,12 @@
       <c r="D205" t="s">
         <v>640</v>
       </c>
+      <c r="E205"/>
       <c r="F205" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="206" customFormat="1" spans="1:6">
+    <row r="206" customFormat="1" ht="14" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>641</v>
       </c>
@@ -10484,11 +10596,12 @@
       <c r="D206" t="s">
         <v>640</v>
       </c>
+      <c r="E206"/>
       <c r="F206" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="207" customFormat="1" spans="1:6">
+    <row r="207" customFormat="1" ht="14" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>643</v>
       </c>
@@ -10499,11 +10612,12 @@
       <c r="D207" t="s">
         <v>640</v>
       </c>
+      <c r="E207"/>
       <c r="F207" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="208" customFormat="1" spans="1:6">
+    <row r="208" customFormat="1" ht="14" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>646</v>
       </c>
@@ -10514,11 +10628,12 @@
       <c r="D208" t="s">
         <v>640</v>
       </c>
+      <c r="E208"/>
       <c r="F208" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="209" customFormat="1" spans="1:6">
+    <row r="209" customFormat="1" ht="14" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>648</v>
       </c>
@@ -10529,11 +10644,12 @@
       <c r="D209" t="s">
         <v>640</v>
       </c>
+      <c r="E209"/>
       <c r="F209" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="210" customFormat="1" spans="1:6">
+    <row r="210" customFormat="1" ht="14" spans="1:6">
       <c r="A210" s="2" t="s">
         <v>650</v>
       </c>
@@ -10544,11 +10660,12 @@
       <c r="D210" t="s">
         <v>640</v>
       </c>
+      <c r="E210"/>
       <c r="F210" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="211" customFormat="1" spans="1:6">
+    <row r="211" customFormat="1" ht="14" spans="1:6">
       <c r="A211" s="2" t="s">
         <v>652</v>
       </c>
@@ -10559,11 +10676,12 @@
       <c r="D211" t="s">
         <v>640</v>
       </c>
+      <c r="E211"/>
       <c r="F211" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="212" customFormat="1" spans="1:6">
+    <row r="212" customFormat="1" ht="14" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>654</v>
       </c>
@@ -10574,11 +10692,12 @@
       <c r="D212" t="s">
         <v>7</v>
       </c>
+      <c r="E212"/>
       <c r="F212" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="213" customFormat="1" spans="1:6">
+    <row r="213" customFormat="1" ht="14" spans="1:6">
       <c r="A213" s="2" t="s">
         <v>657</v>
       </c>
@@ -10589,11 +10708,12 @@
       <c r="D213" t="s">
         <v>659</v>
       </c>
+      <c r="E213"/>
       <c r="F213" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="214" customFormat="1" spans="1:6">
+    <row r="214" customFormat="1" ht="14" spans="1:6">
       <c r="A214" s="2" t="s">
         <v>660</v>
       </c>
@@ -10604,11 +10724,12 @@
       <c r="D214" t="s">
         <v>659</v>
       </c>
+      <c r="E214"/>
       <c r="F214" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="215" customFormat="1" spans="1:6">
+    <row r="215" customFormat="1" ht="14" spans="1:6">
       <c r="A215" s="2" t="s">
         <v>662</v>
       </c>
@@ -10619,11 +10740,12 @@
       <c r="D215" t="s">
         <v>659</v>
       </c>
+      <c r="E215"/>
       <c r="F215" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="216" customFormat="1" spans="1:6">
+    <row r="216" customFormat="1" ht="14" spans="1:6">
       <c r="A216" s="2" t="s">
         <v>665</v>
       </c>
@@ -10634,11 +10756,12 @@
       <c r="D216" t="s">
         <v>659</v>
       </c>
+      <c r="E216"/>
       <c r="F216" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="217" customFormat="1" spans="1:6">
+    <row r="217" customFormat="1" ht="14" spans="1:6">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
@@ -10649,11 +10772,12 @@
       <c r="D217" t="s">
         <v>659</v>
       </c>
+      <c r="E217"/>
       <c r="F217" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="218" customFormat="1" spans="1:6">
+    <row r="218" customFormat="1" ht="14" spans="1:6">
       <c r="A218" s="2" t="s">
         <v>669</v>
       </c>
@@ -10664,11 +10788,12 @@
       <c r="D218" t="s">
         <v>659</v>
       </c>
+      <c r="E218"/>
       <c r="F218" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="219" customFormat="1" spans="1:6">
+    <row r="219" customFormat="1" ht="14" spans="1:6">
       <c r="A219" s="2" t="s">
         <v>671</v>
       </c>
@@ -10679,11 +10804,12 @@
       <c r="D219" t="s">
         <v>659</v>
       </c>
+      <c r="E219"/>
       <c r="F219" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="220" customFormat="1" spans="1:6">
+    <row r="220" customFormat="1" ht="14" spans="1:6">
       <c r="A220" s="2" t="s">
         <v>673</v>
       </c>
@@ -10695,7 +10821,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="221" customFormat="1" spans="1:6">
+    <row r="221" customFormat="1" ht="14" spans="1:6">
       <c r="A221" s="2" t="s">
         <v>676</v>
       </c>
@@ -10710,7 +10836,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="222" customFormat="1" spans="1:6">
+    <row r="222" customFormat="1" ht="14" spans="1:6">
       <c r="A222" s="2" t="s">
         <v>680</v>
       </c>
@@ -10725,7 +10851,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="223" customFormat="1" spans="1:6">
+    <row r="223" customFormat="1" ht="14" spans="1:6">
       <c r="A223" s="2" t="s">
         <v>682</v>
       </c>
@@ -10740,7 +10866,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" customFormat="1" spans="1:6">
+    <row r="224" customFormat="1" ht="14" spans="1:6">
       <c r="A224" s="2" t="s">
         <v>684</v>
       </c>
@@ -10755,7 +10881,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="225" customFormat="1" spans="1:6">
+    <row r="225" customFormat="1" ht="14" spans="1:6">
       <c r="A225" s="2" t="s">
         <v>686</v>
       </c>
@@ -10770,7 +10896,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="226" customFormat="1" spans="1:6">
+    <row r="226" customFormat="1" ht="14" spans="1:6">
       <c r="A226" s="2" t="s">
         <v>688</v>
       </c>
@@ -10785,7 +10911,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="227" customFormat="1" spans="1:6">
+    <row r="227" customFormat="1" ht="14" spans="1:6">
       <c r="A227" s="2" t="s">
         <v>690</v>
       </c>
@@ -10800,7 +10926,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="228" customFormat="1" spans="1:6">
+    <row r="228" customFormat="1" ht="14" spans="1:6">
       <c r="A228" s="2" t="s">
         <v>693</v>
       </c>
@@ -10815,7 +10941,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="229" customFormat="1" spans="1:6">
+    <row r="229" customFormat="1" ht="14" spans="1:6">
       <c r="A229" s="2" t="s">
         <v>696</v>
       </c>
@@ -10830,7 +10956,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="230" customFormat="1" spans="1:6">
+    <row r="230" customFormat="1" ht="14" spans="1:6">
       <c r="A230" s="2" t="s">
         <v>698</v>
       </c>
@@ -10845,7 +10971,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="231" customFormat="1" spans="1:6">
+    <row r="231" customFormat="1" ht="14" spans="1:6">
       <c r="A231" s="2" t="s">
         <v>700</v>
       </c>
@@ -10860,7 +10986,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="232" customFormat="1" spans="1:6">
+    <row r="232" customFormat="1" ht="14" spans="1:6">
       <c r="A232" s="2" t="s">
         <v>702</v>
       </c>
@@ -10875,7 +11001,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="233" customFormat="1" spans="1:6">
+    <row r="233" customFormat="1" ht="14" spans="1:6">
       <c r="A233" s="2" t="s">
         <v>704</v>
       </c>
@@ -10892,7 +11018,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="234" customFormat="1" spans="1:6">
+    <row r="234" customFormat="1" ht="14" spans="1:6">
       <c r="A234" s="2" t="s">
         <v>708</v>
       </c>
@@ -10907,7 +11033,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="235" customFormat="1" spans="1:6">
+    <row r="235" customFormat="1" ht="14" spans="1:6">
       <c r="A235" s="2" t="s">
         <v>711</v>
       </c>
@@ -10922,7 +11048,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="236" customFormat="1" spans="1:6">
+    <row r="236" customFormat="1" ht="14" spans="1:6">
       <c r="A236" s="2" t="s">
         <v>713</v>
       </c>
@@ -10937,7 +11063,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="237" customFormat="1" spans="1:6">
+    <row r="237" customFormat="1" ht="14" spans="1:6">
       <c r="A237" s="2" t="s">
         <v>715</v>
       </c>
@@ -10952,7 +11078,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="238" customFormat="1" spans="1:6">
+    <row r="238" customFormat="1" ht="14" spans="1:6">
       <c r="A238" s="2" t="s">
         <v>717</v>
       </c>
@@ -10967,7 +11093,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="239" customFormat="1" spans="1:6">
+    <row r="239" customFormat="1" ht="14" spans="1:6">
       <c r="A239" s="2" t="s">
         <v>719</v>
       </c>
@@ -10979,7 +11105,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" customFormat="1" spans="1:6">
+    <row r="240" customFormat="1" ht="14" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>721</v>
       </c>
@@ -10990,11 +11116,12 @@
       <c r="D240" t="s">
         <v>7</v>
       </c>
+      <c r="E240"/>
       <c r="F240" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="241" customFormat="1" spans="1:6">
+    <row r="241" customFormat="1" ht="14" spans="1:6">
       <c r="A241" s="2" t="s">
         <v>724</v>
       </c>
@@ -11005,11 +11132,12 @@
       <c r="D241" t="s">
         <v>726</v>
       </c>
+      <c r="E241"/>
       <c r="F241" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="242" customFormat="1" spans="1:6">
+    <row r="242" customFormat="1" ht="14" spans="1:6">
       <c r="A242" s="2" t="s">
         <v>727</v>
       </c>
@@ -11020,11 +11148,12 @@
       <c r="D242" t="s">
         <v>726</v>
       </c>
+      <c r="E242"/>
       <c r="F242" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="243" customFormat="1" spans="1:6">
+    <row r="243" customFormat="1" ht="14" spans="1:6">
       <c r="A243" s="2" t="s">
         <v>729</v>
       </c>
@@ -11035,11 +11164,12 @@
       <c r="D243" t="s">
         <v>726</v>
       </c>
+      <c r="E243"/>
       <c r="F243" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="244" customFormat="1" spans="1:6">
+    <row r="244" customFormat="1" ht="14" spans="1:6">
       <c r="A244" s="2" t="s">
         <v>731</v>
       </c>
@@ -11050,11 +11180,12 @@
       <c r="D244" t="s">
         <v>726</v>
       </c>
+      <c r="E244"/>
       <c r="F244" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="245" customFormat="1" spans="1:6">
+    <row r="245" customFormat="1" ht="14" spans="1:6">
       <c r="A245" s="2" t="s">
         <v>733</v>
       </c>
@@ -11065,11 +11196,12 @@
       <c r="D245" t="s">
         <v>726</v>
       </c>
+      <c r="E245"/>
       <c r="F245" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="246" customFormat="1" spans="1:6">
+    <row r="246" customFormat="1" ht="14" spans="1:6">
       <c r="A246" s="2" t="s">
         <v>735</v>
       </c>
@@ -11080,11 +11212,12 @@
       <c r="D246" t="s">
         <v>7</v>
       </c>
+      <c r="E246"/>
       <c r="F246" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="247" customFormat="1" spans="1:6">
+    <row r="247" customFormat="1" ht="14" spans="1:6">
       <c r="A247" s="2" t="s">
         <v>738</v>
       </c>
@@ -11095,11 +11228,12 @@
       <c r="D247" t="s">
         <v>740</v>
       </c>
+      <c r="E247"/>
       <c r="F247" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="248" customFormat="1" spans="1:6">
+    <row r="248" customFormat="1" ht="14" spans="1:6">
       <c r="A248" s="2" t="s">
         <v>741</v>
       </c>
@@ -11110,11 +11244,12 @@
       <c r="D248" t="s">
         <v>740</v>
       </c>
+      <c r="E248"/>
       <c r="F248" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="249" customFormat="1" spans="1:6">
+    <row r="249" customFormat="1" ht="14" spans="1:6">
       <c r="A249" s="2" t="s">
         <v>743</v>
       </c>
@@ -11125,11 +11260,12 @@
       <c r="D249" t="s">
         <v>740</v>
       </c>
+      <c r="E249"/>
       <c r="F249" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="250" customFormat="1" spans="1:6">
+    <row r="250" customFormat="1" ht="14" spans="1:6">
       <c r="A250" s="2" t="s">
         <v>745</v>
       </c>
@@ -11140,11 +11276,12 @@
       <c r="D250" t="s">
         <v>740</v>
       </c>
+      <c r="E250"/>
       <c r="F250" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="251" customFormat="1" spans="1:6">
+    <row r="251" customFormat="1" ht="14" spans="1:6">
       <c r="A251" s="2" t="s">
         <v>747</v>
       </c>
@@ -11155,11 +11292,12 @@
       <c r="D251" t="s">
         <v>740</v>
       </c>
+      <c r="E251"/>
       <c r="F251" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="252" customFormat="1" spans="1:6">
+    <row r="252" customFormat="1" ht="14" spans="1:6">
       <c r="A252" s="2" t="s">
         <v>749</v>
       </c>
@@ -11170,11 +11308,12 @@
       <c r="D252" t="s">
         <v>740</v>
       </c>
+      <c r="E252"/>
       <c r="F252" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="253" customFormat="1" spans="1:6">
+    <row r="253" customFormat="1" ht="14" spans="1:6">
       <c r="A253" s="2" t="s">
         <v>751</v>
       </c>
@@ -11185,11 +11324,12 @@
       <c r="D253" t="s">
         <v>740</v>
       </c>
+      <c r="E253"/>
       <c r="F253" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="254" customFormat="1" spans="1:6">
+    <row r="254" customFormat="1" ht="14" spans="1:6">
       <c r="A254" s="2" t="s">
         <v>753</v>
       </c>
@@ -11200,11 +11340,12 @@
       <c r="D254" t="s">
         <v>740</v>
       </c>
+      <c r="E254"/>
       <c r="F254" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="255" customFormat="1" spans="1:6">
+    <row r="255" customFormat="1" ht="14" spans="1:6">
       <c r="A255" s="2" t="s">
         <v>755</v>
       </c>
@@ -11215,11 +11356,12 @@
       <c r="D255" t="s">
         <v>740</v>
       </c>
+      <c r="E255"/>
       <c r="F255" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="256" customFormat="1" spans="1:6">
+    <row r="256" customFormat="1" ht="14" spans="1:6">
       <c r="A256" s="2" t="s">
         <v>757</v>
       </c>
@@ -11227,11 +11369,13 @@
       <c r="C256" s="2" t="s">
         <v>758</v>
       </c>
+      <c r="D256"/>
+      <c r="E256"/>
       <c r="F256" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="257" customFormat="1" spans="1:6">
+    <row r="257" customFormat="1" ht="14" spans="1:6">
       <c r="A257" s="2" t="s">
         <v>760</v>
       </c>
@@ -11239,11 +11383,13 @@
       <c r="C257" s="2" t="s">
         <v>761</v>
       </c>
+      <c r="D257"/>
+      <c r="E257"/>
       <c r="F257" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="258" customFormat="1" spans="1:6">
+    <row r="258" customFormat="1" ht="14" spans="1:6">
       <c r="A258" s="2" t="s">
         <v>762</v>
       </c>
@@ -11254,11 +11400,12 @@
       <c r="D258" t="s">
         <v>764</v>
       </c>
+      <c r="E258"/>
       <c r="F258" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="259" customFormat="1" spans="1:6">
+    <row r="259" customFormat="1" ht="14" spans="1:6">
       <c r="A259" s="2" t="s">
         <v>766</v>
       </c>
@@ -11269,11 +11416,12 @@
       <c r="D259" t="s">
         <v>7</v>
       </c>
+      <c r="E259"/>
       <c r="F259" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="260" customFormat="1" spans="1:6">
+    <row r="260" customFormat="1" ht="14" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>769</v>
       </c>
@@ -11284,11 +11432,12 @@
       <c r="D260" t="s">
         <v>771</v>
       </c>
+      <c r="E260"/>
       <c r="F260" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="261" customFormat="1" spans="1:6">
+    <row r="261" customFormat="1" ht="14" spans="1:6">
       <c r="A261" s="2" t="s">
         <v>772</v>
       </c>
@@ -11299,11 +11448,12 @@
       <c r="D261" t="s">
         <v>771</v>
       </c>
+      <c r="E261"/>
       <c r="F261" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="262" customFormat="1" spans="1:6">
+    <row r="262" customFormat="1" ht="14" spans="1:6">
       <c r="A262" s="2" t="s">
         <v>774</v>
       </c>
@@ -11314,11 +11464,12 @@
       <c r="D262" t="s">
         <v>771</v>
       </c>
+      <c r="E262"/>
       <c r="F262" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="263" customFormat="1" spans="1:6">
+    <row r="263" customFormat="1" ht="14" spans="1:6">
       <c r="A263" s="2" t="s">
         <v>776</v>
       </c>
@@ -11329,11 +11480,12 @@
       <c r="D263" t="s">
         <v>771</v>
       </c>
+      <c r="E263"/>
       <c r="F263" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="264" customFormat="1" spans="1:6">
+    <row r="264" customFormat="1" ht="14" spans="1:6">
       <c r="A264" s="2" t="s">
         <v>778</v>
       </c>
@@ -11344,11 +11496,12 @@
       <c r="D264" t="s">
         <v>771</v>
       </c>
+      <c r="E264"/>
       <c r="F264" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="265" customFormat="1" spans="1:6">
+    <row r="265" customFormat="1" ht="14" spans="1:6">
       <c r="A265" s="2" t="s">
         <v>780</v>
       </c>
@@ -11359,11 +11512,12 @@
       <c r="D265" t="s">
         <v>771</v>
       </c>
+      <c r="E265"/>
       <c r="F265" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="266" customFormat="1" spans="1:6">
+    <row r="266" customFormat="1" ht="14" spans="1:6">
       <c r="A266" s="2" t="s">
         <v>782</v>
       </c>
@@ -11374,11 +11528,12 @@
       <c r="D266" t="s">
         <v>7</v>
       </c>
+      <c r="E266"/>
       <c r="F266" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="267" customFormat="1" spans="1:6">
+    <row r="267" customFormat="1" ht="14" spans="1:6">
       <c r="A267" s="2" t="s">
         <v>785</v>
       </c>
@@ -11389,11 +11544,12 @@
       <c r="D267" t="s">
         <v>787</v>
       </c>
+      <c r="E267"/>
       <c r="F267" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="268" customFormat="1" spans="1:6">
+    <row r="268" customFormat="1" ht="14" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>788</v>
       </c>
@@ -11404,11 +11560,12 @@
       <c r="D268" t="s">
         <v>787</v>
       </c>
+      <c r="E268"/>
       <c r="F268" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="269" customFormat="1" spans="1:6">
+    <row r="269" customFormat="1" ht="14" spans="1:6">
       <c r="A269" s="2" t="s">
         <v>790</v>
       </c>
@@ -11419,11 +11576,12 @@
       <c r="D269" t="s">
         <v>787</v>
       </c>
+      <c r="E269"/>
       <c r="F269" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="270" customFormat="1" spans="1:6">
+    <row r="270" customFormat="1" ht="14" spans="1:6">
       <c r="A270" s="2" t="s">
         <v>792</v>
       </c>
@@ -11434,11 +11592,12 @@
       <c r="D270" t="s">
         <v>787</v>
       </c>
+      <c r="E270"/>
       <c r="F270" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="271" customFormat="1" spans="1:6">
+    <row r="271" customFormat="1" ht="14" spans="1:6">
       <c r="A271" s="2" t="s">
         <v>794</v>
       </c>
@@ -11449,11 +11608,12 @@
       <c r="D271" t="s">
         <v>787</v>
       </c>
+      <c r="E271"/>
       <c r="F271" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="272" customFormat="1" spans="1:6">
+    <row r="272" customFormat="1" ht="14" spans="1:6">
       <c r="A272" s="2" t="s">
         <v>796</v>
       </c>
@@ -11468,7 +11628,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="273" customFormat="1" spans="1:6">
+    <row r="273" customFormat="1" ht="14" spans="1:6">
       <c r="A273" s="2" t="s">
         <v>800</v>
       </c>
@@ -11483,7 +11643,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="274" customFormat="1" spans="1:6">
+    <row r="274" customFormat="1" ht="14" spans="1:6">
       <c r="A274" s="2" t="s">
         <v>803</v>
       </c>
@@ -11498,7 +11658,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="275" customFormat="1" spans="1:6">
+    <row r="275" customFormat="1" ht="14" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>806</v>
       </c>
@@ -11513,7 +11673,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="276" customFormat="1" spans="1:6">
+    <row r="276" customFormat="1" ht="14" spans="1:6">
       <c r="A276" s="2" t="s">
         <v>809</v>
       </c>
@@ -11528,7 +11688,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="277" customFormat="1" spans="1:6">
+    <row r="277" customFormat="1" ht="14" spans="1:6">
       <c r="A277" s="2" t="s">
         <v>811</v>
       </c>
@@ -11543,7 +11703,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="278" customFormat="1" spans="1:6">
+    <row r="278" customFormat="1" ht="14" spans="1:6">
       <c r="A278" s="2" t="s">
         <v>813</v>
       </c>
@@ -11558,7 +11718,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="279" customFormat="1" spans="1:6">
+    <row r="279" customFormat="1" ht="14" spans="1:6">
       <c r="A279" s="2" t="s">
         <v>815</v>
       </c>
@@ -11573,7 +11733,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="280" customFormat="1" spans="1:6">
+    <row r="280" customFormat="1" ht="14" spans="1:6">
       <c r="A280" s="2" t="s">
         <v>817</v>
       </c>
@@ -11588,7 +11748,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="281" customFormat="1" spans="1:6">
+    <row r="281" customFormat="1" ht="14" spans="1:6">
       <c r="A281" s="2" t="s">
         <v>819</v>
       </c>
@@ -11603,7 +11763,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="282" customFormat="1" spans="1:6">
+    <row r="282" customFormat="1" ht="14" spans="1:6">
       <c r="A282" s="2" t="s">
         <v>821</v>
       </c>
@@ -11618,7 +11778,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="283" customFormat="1" spans="1:6">
+    <row r="283" customFormat="1" ht="14" spans="1:6">
       <c r="A283" s="2" t="s">
         <v>824</v>
       </c>
@@ -11633,7 +11793,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="284" customFormat="1" spans="1:6">
+    <row r="284" customFormat="1" ht="14" spans="1:6">
       <c r="A284" s="2" t="s">
         <v>827</v>
       </c>
@@ -11648,7 +11808,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="285" customFormat="1" spans="1:6">
+    <row r="285" customFormat="1" ht="14" spans="1:6">
       <c r="A285" s="2" t="s">
         <v>829</v>
       </c>
@@ -11663,7 +11823,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="286" customFormat="1" spans="1:6">
+    <row r="286" customFormat="1" ht="14" spans="1:6">
       <c r="A286" s="2" t="s">
         <v>831</v>
       </c>
@@ -11678,7 +11838,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="287" customFormat="1" spans="1:6">
+    <row r="287" customFormat="1" ht="14" spans="1:6">
       <c r="A287" s="2" t="s">
         <v>833</v>
       </c>
@@ -11693,7 +11853,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="288" customFormat="1" spans="1:6">
+    <row r="288" customFormat="1" ht="14" spans="1:6">
       <c r="A288" s="2" t="s">
         <v>835</v>
       </c>
@@ -11705,7 +11865,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="289" customFormat="1" spans="1:6">
+    <row r="289" customFormat="1" ht="14" spans="1:6">
       <c r="A289" s="2" t="s">
         <v>838</v>
       </c>
@@ -11717,7 +11877,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="290" customFormat="1" spans="1:6">
+    <row r="290" customFormat="1" ht="14" spans="1:6">
       <c r="A290" s="2" t="s">
         <v>840</v>
       </c>
@@ -11729,7 +11889,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="291" customFormat="1" spans="1:6">
+    <row r="291" customFormat="1" ht="14" spans="1:6">
       <c r="A291" s="2" t="s">
         <v>842</v>
       </c>
@@ -11741,7 +11901,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="292" customFormat="1" spans="1:6">
+    <row r="292" customFormat="1" ht="14" spans="1:6">
       <c r="A292" s="2" t="s">
         <v>844</v>
       </c>
@@ -11753,7 +11913,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="293" customFormat="1" spans="1:6">
+    <row r="293" customFormat="1" ht="14" spans="1:6">
       <c r="A293" s="2" t="s">
         <v>846</v>
       </c>
@@ -11765,7 +11925,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="294" customFormat="1" spans="1:6">
+    <row r="294" customFormat="1" ht="14" spans="1:6">
       <c r="A294" s="2" t="s">
         <v>848</v>
       </c>
@@ -11777,7 +11937,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="295" customFormat="1" spans="1:6">
+    <row r="295" customFormat="1" ht="14" spans="1:6">
       <c r="A295" s="2" t="s">
         <v>850</v>
       </c>
@@ -11789,7 +11949,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="296" customFormat="1" spans="1:6">
+    <row r="296" customFormat="1" ht="14" spans="1:6">
       <c r="A296" s="2" t="s">
         <v>852</v>
       </c>
@@ -11800,11 +11960,12 @@
       <c r="D296" t="s">
         <v>854</v>
       </c>
+      <c r="E296"/>
       <c r="F296" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="297" customFormat="1" spans="1:6">
+    <row r="297" customFormat="1" ht="14" spans="1:6">
       <c r="A297" s="2" t="s">
         <v>856</v>
       </c>
@@ -11815,11 +11976,12 @@
       <c r="D297" t="s">
         <v>7</v>
       </c>
+      <c r="E297"/>
       <c r="F297" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="298" customFormat="1" spans="1:6">
+    <row r="298" customFormat="1" ht="14" spans="1:6">
       <c r="A298" s="2" t="s">
         <v>859</v>
       </c>
@@ -11832,11 +11994,12 @@
       <c r="D298" t="s">
         <v>862</v>
       </c>
+      <c r="E298"/>
       <c r="F298" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="299" customFormat="1" spans="1:6">
+    <row r="299" customFormat="1" ht="14" spans="1:6">
       <c r="A299" s="2" t="s">
         <v>863</v>
       </c>
@@ -11849,11 +12012,12 @@
       <c r="D299" t="s">
         <v>862</v>
       </c>
+      <c r="E299"/>
       <c r="F299" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="300" customFormat="1" spans="1:6">
+    <row r="300" customFormat="1" ht="14" spans="1:6">
       <c r="A300" s="2" t="s">
         <v>866</v>
       </c>
@@ -11864,11 +12028,12 @@
       <c r="D300" t="s">
         <v>862</v>
       </c>
+      <c r="E300"/>
       <c r="F300" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="301" customFormat="1" spans="1:6">
+    <row r="301" customFormat="1" ht="14" spans="1:6">
       <c r="A301" s="2" t="s">
         <v>868</v>
       </c>
@@ -11879,11 +12044,12 @@
       <c r="D301" t="s">
         <v>862</v>
       </c>
+      <c r="E301"/>
       <c r="F301" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="302" customFormat="1" spans="1:6">
+    <row r="302" customFormat="1" ht="14" spans="1:6">
       <c r="A302" s="2" t="s">
         <v>870</v>
       </c>
@@ -11894,11 +12060,12 @@
       <c r="D302" t="s">
         <v>862</v>
       </c>
+      <c r="E302"/>
       <c r="F302" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="303" customFormat="1" spans="1:6">
+    <row r="303" customFormat="1" ht="14" spans="1:6">
       <c r="A303" s="2" t="s">
         <v>872</v>
       </c>
@@ -11909,11 +12076,12 @@
       <c r="D303" t="s">
         <v>7</v>
       </c>
+      <c r="E303"/>
       <c r="F303" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="304" customFormat="1" spans="1:6">
+    <row r="304" customFormat="1" ht="14" spans="1:6">
       <c r="A304" s="2" t="s">
         <v>875</v>
       </c>
@@ -11924,11 +12092,12 @@
       <c r="D304" t="s">
         <v>877</v>
       </c>
+      <c r="E304"/>
       <c r="F304" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="305" customFormat="1" spans="1:6">
+    <row r="305" customFormat="1" ht="14" spans="1:6">
       <c r="A305" s="2" t="s">
         <v>878</v>
       </c>
@@ -11939,11 +12108,12 @@
       <c r="D305" t="s">
         <v>877</v>
       </c>
+      <c r="E305"/>
       <c r="F305" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="306" customFormat="1" spans="1:6">
+    <row r="306" customFormat="1" ht="14" spans="1:6">
       <c r="A306" s="2" t="s">
         <v>880</v>
       </c>
@@ -11954,11 +12124,12 @@
       <c r="D306" t="s">
         <v>877</v>
       </c>
+      <c r="E306"/>
       <c r="F306" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="307" customFormat="1" spans="1:6">
+    <row r="307" customFormat="1" ht="14" spans="1:6">
       <c r="A307" s="2" t="s">
         <v>882</v>
       </c>
@@ -11969,11 +12140,12 @@
       <c r="D307" t="s">
         <v>877</v>
       </c>
+      <c r="E307"/>
       <c r="F307" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="308" customFormat="1" spans="1:6">
+    <row r="308" customFormat="1" ht="14" spans="1:6">
       <c r="A308" s="2" t="s">
         <v>884</v>
       </c>
@@ -11984,76 +12156,77 @@
       <c r="D308" t="s">
         <v>877</v>
       </c>
+      <c r="E308"/>
       <c r="F308" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="309" customFormat="1" spans="1:3">
+    <row r="309" customFormat="1" ht="14" spans="1:3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
     </row>
-    <row r="310" customFormat="1" spans="1:3">
+    <row r="310" customFormat="1" ht="14" spans="1:3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
-    <row r="311" customFormat="1" spans="1:3">
+    <row r="311" customFormat="1" ht="14" spans="1:3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
     </row>
-    <row r="312" customFormat="1" spans="1:3">
+    <row r="312" customFormat="1" ht="14" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
     </row>
-    <row r="313" customFormat="1" spans="1:3">
+    <row r="313" customFormat="1" ht="14" spans="1:3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
     </row>
-    <row r="314" customFormat="1" spans="1:3">
+    <row r="314" customFormat="1" ht="14" spans="1:3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
     </row>
-    <row r="315" customFormat="1" spans="1:3">
+    <row r="315" customFormat="1" ht="14" spans="1:3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
     </row>
-    <row r="316" customFormat="1" spans="1:3">
+    <row r="316" customFormat="1" ht="14" spans="1:3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
     </row>
-    <row r="317" customFormat="1" spans="1:3">
+    <row r="317" customFormat="1" ht="14" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
     </row>
-    <row r="318" customFormat="1" spans="1:3">
+    <row r="318" customFormat="1" ht="14" spans="1:3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
     </row>
-    <row r="319" customFormat="1" spans="1:3">
+    <row r="319" customFormat="1" ht="14" spans="1:3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
     </row>
-    <row r="320" customFormat="1" spans="1:3">
+    <row r="320" customFormat="1" ht="14" spans="1:3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
     </row>
-    <row r="321" customFormat="1" spans="1:3">
+    <row r="321" customFormat="1" ht="14" spans="1:3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
     </row>
-    <row r="322" customFormat="1" spans="1:3">
+    <row r="322" customFormat="1" ht="14" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -12075,12 +12248,12 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.2685185185185" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1851851851852" style="1" customWidth="1"/>
-    <col min="3" max="3" width="91.2685185185185" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="12.2727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="91.2727272727273" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -12113,6 +12286,8 @@
       <c r="C2" s="2" t="s">
         <v>888</v>
       </c>
+      <c r="D2"/>
+      <c r="E2"/>
       <c r="F2" t="s">
         <v>56</v>
       </c>
@@ -12125,6 +12300,8 @@
       <c r="C3" s="2" t="s">
         <v>890</v>
       </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>56</v>
       </c>
@@ -12137,6 +12314,8 @@
       <c r="C4" s="2" t="s">
         <v>892</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>56</v>
       </c>
@@ -12149,6 +12328,8 @@
       <c r="C5" s="2" t="s">
         <v>894</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>56</v>
       </c>
@@ -12163,6 +12344,8 @@
       <c r="C6" s="2" t="s">
         <v>897</v>
       </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="s">
         <v>56</v>
       </c>
@@ -12175,6 +12358,8 @@
       <c r="C7" s="2" t="s">
         <v>899</v>
       </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="s">
         <v>56</v>
       </c>
@@ -12187,6 +12372,8 @@
       <c r="C8" s="2" t="s">
         <v>901</v>
       </c>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>56</v>
       </c>
@@ -12201,6 +12388,8 @@
       <c r="C9" s="2" t="s">
         <v>904</v>
       </c>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="s">
         <v>56</v>
       </c>
@@ -12213,6 +12402,8 @@
       <c r="C10" s="2" t="s">
         <v>906</v>
       </c>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" t="s">
         <v>56</v>
       </c>
@@ -12225,6 +12416,8 @@
       <c r="C11" s="2" t="s">
         <v>908</v>
       </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" t="s">
         <v>56</v>
       </c>
@@ -12239,6 +12432,8 @@
       <c r="C12" s="2" t="s">
         <v>911</v>
       </c>
+      <c r="D12"/>
+      <c r="E12"/>
       <c r="F12" t="s">
         <v>56</v>
       </c>
@@ -12251,6 +12446,8 @@
       <c r="C13" s="2" t="s">
         <v>913</v>
       </c>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13" t="s">
         <v>56</v>
       </c>
@@ -12265,6 +12462,8 @@
       <c r="C14" s="2" t="s">
         <v>916</v>
       </c>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="F14" t="s">
         <v>56</v>
       </c>
@@ -12277,6 +12476,8 @@
       <c r="C15" s="2" t="s">
         <v>918</v>
       </c>
+      <c r="D15"/>
+      <c r="E15"/>
       <c r="F15" t="s">
         <v>56</v>
       </c>
@@ -12291,6 +12492,8 @@
       <c r="C16" s="2" t="s">
         <v>921</v>
       </c>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16" t="s">
         <v>56</v>
       </c>
